--- a/Problem Bank URL.xlsx
+++ b/Problem Bank URL.xlsx
@@ -40,7 +40,7 @@
     <t>Research Survey</t>
   </si>
   <si>
-    <t>/content/EC-TEL FIles/OpenStax_ College Algebra (Sample).xlsx</t>
+    <t>/content/EC-TEL_Files/OpenStax_ College Algebra (Sample).xlsx</t>
   </si>
   <si>
     <t>https://openstax.org/details/books/college-algebra-2e &lt;OpenStax: College Algebra&gt;</t>
